--- a/predictions/predictions_day_2.xlsx
+++ b/predictions/predictions_day_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/demetri/gitrepos/Euro2020/predictions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59C8348-AB8F-4E43-80DB-1AB3AC31FBF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20282D79-31B9-4F47-B595-176A95CE0D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23500" yWindow="5820" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/predictions/predictions_day_2.xlsx
+++ b/predictions/predictions_day_2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/demetri/gitrepos/Euro2020/predictions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5D12CEE-2B99-7543-99DE-51C338AAFAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D771CD0B-F88E-F746-9EEB-36267A9238DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000"/>
+    <workbookView xWindow="4660" yWindow="940" windowWidth="25440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="predictions_day_2" sheetId="1" r:id="rId1"/>
@@ -123,37 +123,37 @@
     <t>Poland</t>
   </si>
   <si>
-    <t>team1score</t>
-  </si>
-  <si>
-    <t>team2score</t>
-  </si>
-  <si>
     <t>team1won</t>
   </si>
   <si>
     <t>team2won</t>
   </si>
   <si>
-    <t>neitherwon</t>
-  </si>
-  <si>
-    <t>lossteam2</t>
-  </si>
-  <si>
     <t>lossdraw</t>
   </si>
   <si>
     <t>loss</t>
   </si>
   <si>
-    <t>lossdraw2</t>
+    <t>score1</t>
+  </si>
+  <si>
+    <t>score2</t>
+  </si>
+  <si>
+    <t>noteamwon</t>
+  </si>
+  <si>
+    <t>loss1</t>
+  </si>
+  <si>
+    <t>loss2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -587,7 +587,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -630,11 +630,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="2" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="3" builtinId="38" customBuiltin="1"/>
@@ -674,16 +677,23 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="37" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="38" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="39" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="40" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -699,30 +709,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:O13" totalsRowShown="0">
-  <autoFilter ref="A1:O13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:O13" totalsRowShown="0">
+  <autoFilter ref="A1:O13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="team1"/>
-    <tableColumn id="2" name="team2"/>
-    <tableColumn id="3" name="matchday"/>
-    <tableColumn id="4" name="draw"/>
-    <tableColumn id="5" name="team1wins"/>
-    <tableColumn id="6" name="team2wins"/>
-    <tableColumn id="7" name="team1score"/>
-    <tableColumn id="8" name="team2score"/>
-    <tableColumn id="9" name="neitherwon"/>
-    <tableColumn id="10" name="team1won"/>
-    <tableColumn id="11" name="team2won"/>
-    <tableColumn id="12" name="lossdraw" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="team1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="team2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="matchday"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="draw" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="team1wins" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="team2wins" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="score1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="score2"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="noteamwon"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="team1won"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="team2won"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="lossdraw" dataDxfId="3">
       <calculatedColumnFormula>-LOG(predictions_day_2!$D2,EXP(1))*predictions_day_2!$I2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="lossteam2">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="loss1" dataDxfId="2">
       <calculatedColumnFormula>-LOG(predictions_day_2!$E2,EXP(1))*predictions_day_2!$J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="lossdraw2">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="loss2" dataDxfId="1">
       <calculatedColumnFormula>-LOG(predictions_day_2!$F2,EXP(1))*predictions_day_2!$K2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="loss" dataDxfId="0">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="loss" dataDxfId="0">
       <calculatedColumnFormula>SUM(predictions_day_2!$L2:$N2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1026,17 +1036,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="5" max="6" width="12.6640625" customWidth="1"/>
+    <col min="1" max="15" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -1059,31 +1068,31 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>31</v>
       </c>
-      <c r="I1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>32</v>
       </c>
-      <c r="K1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" t="s">
-        <v>36</v>
-      </c>
       <c r="M1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N1" t="s">
         <v>38</v>
       </c>
       <c r="O1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -1096,13 +1105,13 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>0.26224999999999998</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>0.29299999999999998</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>0.44474999999999998</v>
       </c>
       <c r="G2">
@@ -1120,19 +1129,19 @@
       <c r="K2">
         <v>1</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="2">
         <f>-LOG(predictions_day_2!$D2,EXP(1))*predictions_day_2!$I2</f>
         <v>0</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="2">
         <f>-LOG(predictions_day_2!$E2,EXP(1))*predictions_day_2!$J2</f>
         <v>0</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="2">
         <f>-LOG(predictions_day_2!$F2,EXP(1))*predictions_day_2!$K2</f>
         <v>0.8102429524361926</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="2">
         <f>SUM(predictions_day_2!$L2:$N2)</f>
         <v>0.8102429524361926</v>
       </c>
@@ -1147,30 +1156,45 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>0.26374999999999998</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>0.35625000000000001</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>0.38</v>
       </c>
-      <c r="L3">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2">
         <f>-LOG(predictions_day_2!$D3,EXP(1))*predictions_day_2!$I3</f>
         <v>0</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="2">
         <f>-LOG(predictions_day_2!$E3,EXP(1))*predictions_day_2!$J3</f>
         <v>0</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="2">
         <f>-LOG(predictions_day_2!$F3,EXP(1))*predictions_day_2!$K3</f>
-        <v>0</v>
-      </c>
-      <c r="O3">
+        <v>0.96758402626170559</v>
+      </c>
+      <c r="O3" s="2">
         <f>SUM(predictions_day_2!$L3:$N3)</f>
-        <v>0</v>
+        <v>0.96758402626170559</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -1183,30 +1207,45 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>0.17424999999999999</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>0.69425000000000003</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>0.13150000000000001</v>
       </c>
-      <c r="L4">
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
         <f>-LOG(predictions_day_2!$D4,EXP(1))*predictions_day_2!$I4</f>
         <v>0</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="2">
         <f>-LOG(predictions_day_2!$E4,EXP(1))*predictions_day_2!$J4</f>
-        <v>0</v>
-      </c>
-      <c r="N4">
+        <v>0.36492315279522808</v>
+      </c>
+      <c r="N4" s="2">
         <f>-LOG(predictions_day_2!$F4,EXP(1))*predictions_day_2!$K4</f>
         <v>0</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="2">
         <f>SUM(predictions_day_2!$L4:$N4)</f>
-        <v>0</v>
+        <v>0.36492315279522808</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -1219,30 +1258,45 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>0.16800000000000001</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>0.71875</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>0.11325</v>
       </c>
-      <c r="L5">
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
         <f>-LOG(predictions_day_2!$D5,EXP(1))*predictions_day_2!$I5</f>
         <v>0</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="2">
         <f>-LOG(predictions_day_2!$E5,EXP(1))*predictions_day_2!$J5</f>
-        <v>0</v>
-      </c>
-      <c r="N5">
+        <v>0.33024168687057687</v>
+      </c>
+      <c r="N5" s="2">
         <f>-LOG(predictions_day_2!$F5,EXP(1))*predictions_day_2!$K5</f>
         <v>0</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="2">
         <f>SUM(predictions_day_2!$L5:$N5)</f>
-        <v>0</v>
+        <v>0.33024168687057687</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -1255,30 +1309,45 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>0.18275</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>0.12375</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>0.69350000000000001</v>
       </c>
-      <c r="L6">
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2">
         <f>-LOG(predictions_day_2!$D6,EXP(1))*predictions_day_2!$I6</f>
         <v>0</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="2">
         <f>-LOG(predictions_day_2!$E6,EXP(1))*predictions_day_2!$J6</f>
         <v>0</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="2">
         <f>-LOG(predictions_day_2!$F6,EXP(1))*predictions_day_2!$K6</f>
-        <v>0</v>
-      </c>
-      <c r="O6">
+        <v>0.36600403922725078</v>
+      </c>
+      <c r="O6" s="2">
         <f>SUM(predictions_day_2!$L6:$N6)</f>
-        <v>0</v>
+        <v>0.36600403922725078</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -1291,30 +1360,45 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>0.21575</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>0.59650000000000003</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>0.18775</v>
       </c>
-      <c r="L7">
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
         <f>-LOG(predictions_day_2!$D7,EXP(1))*predictions_day_2!$I7</f>
         <v>0</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="2">
         <f>-LOG(predictions_day_2!$E7,EXP(1))*predictions_day_2!$J7</f>
-        <v>0</v>
-      </c>
-      <c r="N7">
+        <v>0.51667603744416624</v>
+      </c>
+      <c r="N7" s="2">
         <f>-LOG(predictions_day_2!$F7,EXP(1))*predictions_day_2!$K7</f>
         <v>0</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="2">
         <f>SUM(predictions_day_2!$L7:$N7)</f>
-        <v>0</v>
+        <v>0.51667603744416624</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -1327,30 +1411,45 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>0.2225</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>0.59025000000000005</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>0.18725</v>
       </c>
-      <c r="L8">
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
         <f>-LOG(predictions_day_2!$D8,EXP(1))*predictions_day_2!$I8</f>
         <v>0</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="2">
         <f>-LOG(predictions_day_2!$E8,EXP(1))*predictions_day_2!$J8</f>
-        <v>0</v>
-      </c>
-      <c r="N8">
+        <v>0.52720910301651469</v>
+      </c>
+      <c r="N8" s="2">
         <f>-LOG(predictions_day_2!$F8,EXP(1))*predictions_day_2!$K8</f>
         <v>0</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="2">
         <f>SUM(predictions_day_2!$L8:$N8)</f>
-        <v>0</v>
+        <v>0.52720910301651469</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -1363,30 +1462,45 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>0.251</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>0.47125</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>0.27775</v>
       </c>
-      <c r="L9">
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
         <f>-LOG(predictions_day_2!$D9,EXP(1))*predictions_day_2!$I9</f>
-        <v>0</v>
-      </c>
-      <c r="M9">
+        <v>1.3823023398503531</v>
+      </c>
+      <c r="M9" s="2">
         <f>-LOG(predictions_day_2!$E9,EXP(1))*predictions_day_2!$J9</f>
         <v>0</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="2">
         <f>-LOG(predictions_day_2!$F9,EXP(1))*predictions_day_2!$K9</f>
         <v>0</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="2">
         <f>SUM(predictions_day_2!$L9:$N9)</f>
-        <v>0</v>
+        <v>1.3823023398503531</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -1399,30 +1513,45 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>5.45E-2</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>0.91525000000000001</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>3.0249999999999999E-2</v>
       </c>
-      <c r="L10">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
         <f>-LOG(predictions_day_2!$D10,EXP(1))*predictions_day_2!$I10</f>
-        <v>0</v>
-      </c>
-      <c r="M10">
+        <v>2.9095545773129388</v>
+      </c>
+      <c r="M10" s="2">
         <f>-LOG(predictions_day_2!$E10,EXP(1))*predictions_day_2!$J10</f>
         <v>0</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="2">
         <f>-LOG(predictions_day_2!$F10,EXP(1))*predictions_day_2!$K10</f>
         <v>0</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="2">
         <f>SUM(predictions_day_2!$L10:$N10)</f>
-        <v>0</v>
+        <v>2.9095545773129388</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -1435,30 +1564,45 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>0.18575</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>0.14149999999999999</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>0.67274999999999996</v>
       </c>
-      <c r="L11">
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
         <f>-LOG(predictions_day_2!$D11,EXP(1))*predictions_day_2!$I11</f>
-        <v>0</v>
-      </c>
-      <c r="M11">
+        <v>1.6833535953842684</v>
+      </c>
+      <c r="M11" s="2">
         <f>-LOG(predictions_day_2!$E11,EXP(1))*predictions_day_2!$J11</f>
         <v>0</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="2">
         <f>-LOG(predictions_day_2!$F11,EXP(1))*predictions_day_2!$K11</f>
         <v>0</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="2">
         <f>SUM(predictions_day_2!$L11:$N11)</f>
-        <v>0</v>
+        <v>1.6833535953842684</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -1471,30 +1615,45 @@
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>0.249</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>0.48975000000000002</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>0.26124999999999998</v>
       </c>
-      <c r="L12">
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2">
         <f>-LOG(predictions_day_2!$D12,EXP(1))*predictions_day_2!$I12</f>
         <v>0</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="2">
         <f>-LOG(predictions_day_2!$E12,EXP(1))*predictions_day_2!$J12</f>
         <v>0</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="2">
         <f>-LOG(predictions_day_2!$F12,EXP(1))*predictions_day_2!$K12</f>
-        <v>0</v>
-      </c>
-      <c r="O12">
+        <v>1.3422774757031164</v>
+      </c>
+      <c r="O12" s="2">
         <f>SUM(predictions_day_2!$L12:$N12)</f>
-        <v>0</v>
+        <v>1.3422774757031164</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -1507,30 +1666,45 @@
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>0.2455</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>0.53449999999999998</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>0.22</v>
       </c>
-      <c r="L13">
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
         <f>-LOG(predictions_day_2!$D13,EXP(1))*predictions_day_2!$I13</f>
-        <v>0</v>
-      </c>
-      <c r="M13">
+        <v>1.4044583317475619</v>
+      </c>
+      <c r="M13" s="2">
         <f>-LOG(predictions_day_2!$E13,EXP(1))*predictions_day_2!$J13</f>
         <v>0</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="2">
         <f>-LOG(predictions_day_2!$F13,EXP(1))*predictions_day_2!$K13</f>
         <v>0</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="2">
         <f>SUM(predictions_day_2!$L13:$N13)</f>
-        <v>0</v>
+        <v>1.4044583317475619</v>
       </c>
     </row>
   </sheetData>
